--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2200803.346643522</v>
+        <v>-2203439.716296996</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>212.5820731195833</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>51.95836603255727</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>114.1642018600495</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>141.8701959122715</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>49.87943354460261</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>59.50984586051486</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>56.97227283338371</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>63.94957669011131</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>83.56741318567445</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>181.2290365055927</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>77.06300304438594</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>63.77154681295707</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>63.16281301712846</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176103</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>136.7593194687116</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>247.9252424950642</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>21.90286287505374</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>99.65140663107616</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>138.534312581592</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>86.90598908794095</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>102.1557845699822</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,19 +2713,19 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,7 +2959,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002292</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1254.111199477248</v>
+        <v>265.976153355461</v>
       </c>
       <c r="C2" t="n">
-        <v>885.1486825368361</v>
+        <v>265.976153355461</v>
       </c>
       <c r="D2" t="n">
-        <v>885.1486825368361</v>
+        <v>265.976153355461</v>
       </c>
       <c r="E2" t="n">
-        <v>885.1486825368361</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F2" t="n">
-        <v>474.1627777472285</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y2" t="n">
-        <v>1254.111199477248</v>
+        <v>652.5759934195828</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>304.7087196946019</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>599.4122767260736</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.1598801503962</v>
+        <v>1537.377051002511</v>
       </c>
       <c r="C4" t="n">
-        <v>199.1598801503962</v>
+        <v>1537.377051002511</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>1387.260411590175</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>1239.347318007782</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>1092.457370509872</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1092.457370509872</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>2008.442685869711</v>
       </c>
       <c r="W4" t="n">
-        <v>427.1494310484136</v>
+        <v>1719.025515832751</v>
       </c>
       <c r="X4" t="n">
-        <v>199.1598801503962</v>
+        <v>1719.025515832751</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.1598801503962</v>
+        <v>1719.025515832751</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.299101484276</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.336584543865</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1257.336584543865</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5483319456202</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3265.494866194509</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3265.494866194509</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3011.964389468345</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>3011.964389468345</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2659.195734198231</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.03827352421</v>
+        <v>2285.729975937151</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548398</v>
+        <v>2285.729975937151</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4647,10 +4647,10 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684.4520072430315</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C7" t="n">
-        <v>515.5158243151246</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>515.5158243151246</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>367.6027307327315</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>367.6027307327315</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1551.101943405333</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1296.417455199446</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>1007.000285162486</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>1007.000285162486</v>
       </c>
       <c r="Y7" t="n">
-        <v>866.1004720732712</v>
+        <v>1007.000285162486</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1274.539111149741</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>905.5765942093292</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,7 +4799,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
@@ -4814,16 +4814,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3032.255520302333</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2701.192632958763</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2701.192632958763</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.726874697683</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
@@ -4878,16 +4878,16 @@
         <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,22 +4899,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364616</v>
+        <v>529.5785797246257</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1449.426344633373</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>1160.009174596413</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110231</v>
+        <v>932.0196236983955</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667013</v>
+        <v>711.2270445548654</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>923.067041434951</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989557</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578603</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578603</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578603</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038358</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="14">
@@ -5255,28 +5255,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,40 +5285,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.8412329032296</v>
+        <v>951.7772127656161</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032296</v>
+        <v>782.8410298377092</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2125.967522499092</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W16" t="n">
-        <v>1183.271827775017</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>955.2822768769995</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.4896977334694</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>198.027470314254</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>198.027470314254</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>954.2476448606607</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C22" t="n">
-        <v>785.3114619327538</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.8961096909</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5975,37 +5975,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>139.234765840793</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>634.560372056552</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,7 +6218,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6227,46 +6227,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703778</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I28" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6400,10 +6400,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>634.560372056552</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6646,7 +6646,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345469</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384012</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,31 +7111,31 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7728,19 +7728,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,25 +8055,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>6.454437538929824</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>325.9515015691438</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>169.3482969526785</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>359.5893367403967</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>235.6455902361443</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>144.6528024243195</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>116.6691671648088</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>80.64613085857667</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>38.5977558415268</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.3918499711701</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>152.4862366927518</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>41.29766760034533</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>61.7094839302714</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.45968844823011</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.36674215495</v>
+        <v>48691.36674215494</v>
       </c>
       <c r="C2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>60535.99497675046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>60535.99497675046</v>
+      </c>
+      <c r="G2" t="n">
         <v>60535.99497675047</v>
       </c>
-      <c r="F2" t="n">
-        <v>60535.99497675045</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>60535.99497675043</v>
+      </c>
+      <c r="I2" t="n">
         <v>60535.99497675044</v>
       </c>
-      <c r="H2" t="n">
-        <v>60535.99497675047</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60535.99497675043</v>
-      </c>
       <c r="J2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982123</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="L2" t="n">
         <v>61578.13273982125</v>
@@ -26347,10 +26347,10 @@
         <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982125</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187032.8958036144</v>
+        <v>187032.8958036143</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605439</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-11</v>
       </c>
       <c r="O3" t="n">
         <v>19427.71799363176</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39859.1871802954</v>
+        <v>39859.18718029537</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312023</v>
+        <v>89134.17909312012</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,34 +26430,34 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768919</v>
+        <v>9947.144321768879</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768883</v>
+        <v>9947.144321768934</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768918</v>
       </c>
       <c r="J4" t="n">
-        <v>17938.00358486233</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="K4" t="n">
-        <v>17938.00358486235</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="M4" t="n">
+        <v>17938.00358486236</v>
+      </c>
+      <c r="N4" t="n">
         <v>17938.0035848624</v>
-      </c>
-      <c r="N4" t="n">
-        <v>17938.00358486238</v>
       </c>
       <c r="O4" t="n">
         <v>17938.00358486237</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486236</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1198857.376453905</v>
+        <v>-1199286.935320494</v>
       </c>
       <c r="C6" t="n">
         <v>-338928.7285267981</v>
@@ -26528,40 +26528,40 @@
         <v>-135489.9869146922</v>
       </c>
       <c r="E6" t="n">
-        <v>-375946.1409762807</v>
+        <v>-375980.8789017168</v>
       </c>
       <c r="F6" t="n">
-        <v>-50533.67916892556</v>
+        <v>-50568.41709436126</v>
       </c>
       <c r="G6" t="n">
-        <v>-50533.67916892559</v>
+        <v>-50568.41709436123</v>
       </c>
       <c r="H6" t="n">
-        <v>-50533.67916892552</v>
+        <v>-50568.41709436131</v>
       </c>
       <c r="I6" t="n">
-        <v>-50533.6791689256</v>
+        <v>-50568.41709436128</v>
       </c>
       <c r="J6" t="n">
-        <v>-246556.8825025709</v>
+        <v>-246556.8825025708</v>
       </c>
       <c r="K6" t="n">
-        <v>-108634.0794050109</v>
+        <v>-108634.079405011</v>
       </c>
       <c r="L6" t="n">
-        <v>-59523.98669895656</v>
+        <v>-59523.98669895651</v>
       </c>
       <c r="M6" t="n">
         <v>-144579.0146344684</v>
       </c>
       <c r="N6" t="n">
+        <v>-59523.98669895658</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-78951.70469258825</v>
+      </c>
+      <c r="P6" t="n">
         <v>-59523.98669895652</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-78951.70469258828</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-59523.98669895651</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.32139020186372</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>113.5953784812687</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>33.08730729507934</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>356.9966121971088</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>49.67791592766098</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>109.0535354256445</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>222.2622615155016</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>323.308632556037</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>69.76613545330929</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>90.1838180542419</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>188.3660965108709</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500292</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>690.2058188111479</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,10 +32087,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>677.7372574190229</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32233,34 +32233,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>251.886104915025</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321073</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>181.9330708814842</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3041720118991</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33734,22 +33734,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279222</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34448,22 +34448,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>193.0419337824147</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>388.6189266346374</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>159.0482712280108</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>547.6095743667034</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096363</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,10 +35735,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>535.1410129745784</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>120.5443928316917</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876629</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>44.09163190712524</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.7309431539454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>57.74979223202487</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37382,22 +37382,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059039</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.910780481947</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980851</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38096,22 +38096,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
